--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H2">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N2">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q2">
-        <v>241.5188113630238</v>
+        <v>139.0124070903633</v>
       </c>
       <c r="R2">
-        <v>2173.669302267215</v>
+        <v>1251.11166381327</v>
       </c>
       <c r="S2">
-        <v>0.38436643823714</v>
+        <v>0.3629782976492997</v>
       </c>
       <c r="T2">
-        <v>0.38436643823714</v>
+        <v>0.3629782976492997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H3">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.937095</v>
       </c>
       <c r="O3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q3">
-        <v>6.805756246801666</v>
+        <v>5.597469285694999</v>
       </c>
       <c r="R3">
-        <v>61.251806221215</v>
+        <v>50.37722357125499</v>
       </c>
       <c r="S3">
-        <v>0.01083105814131136</v>
+        <v>0.01461567291000933</v>
       </c>
       <c r="T3">
-        <v>0.01083105814131136</v>
+        <v>0.01461567291000933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H4">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N4">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q4">
-        <v>318.7342573052195</v>
+        <v>199.4146913129676</v>
       </c>
       <c r="R4">
-        <v>2868.608315746975</v>
+        <v>1794.732221816709</v>
       </c>
       <c r="S4">
-        <v>0.5072513835803166</v>
+        <v>0.520696006162887</v>
       </c>
       <c r="T4">
-        <v>0.5072513835803166</v>
+        <v>0.5206960061628871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.077019</v>
       </c>
       <c r="I5">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J5">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N5">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q5">
-        <v>15.06462824020055</v>
+        <v>10.54255052110778</v>
       </c>
       <c r="R5">
-        <v>135.581654161805</v>
+        <v>94.88295468996999</v>
       </c>
       <c r="S5">
-        <v>0.02397468531488067</v>
+        <v>0.02752788129584669</v>
       </c>
       <c r="T5">
-        <v>0.02397468531488067</v>
+        <v>0.02752788129584669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.077019</v>
       </c>
       <c r="I6">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J6">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.937095</v>
       </c>
       <c r="O6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q6">
         <v>0.4245060133116667</v>
@@ -818,10 +818,10 @@
         <v>3.820554119805</v>
       </c>
       <c r="S6">
-        <v>0.0006755824253440894</v>
+        <v>0.00110843681710797</v>
       </c>
       <c r="T6">
-        <v>0.0006755824253440893</v>
+        <v>0.00110843681710797</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.077019</v>
       </c>
       <c r="I7">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J7">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N7">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q7">
-        <v>19.88090727435022</v>
+        <v>15.12339439206656</v>
       </c>
       <c r="R7">
-        <v>178.928165469152</v>
+        <v>136.110549528599</v>
       </c>
       <c r="S7">
-        <v>0.03163957902425629</v>
+        <v>0.03948902163490287</v>
       </c>
       <c r="T7">
-        <v>0.03163957902425629</v>
+        <v>0.03948902163490288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H8">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N8">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O8">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P8">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q8">
-        <v>11.04259077542555</v>
+        <v>5.197305791946667</v>
       </c>
       <c r="R8">
-        <v>99.38331697882998</v>
+        <v>46.77575212752</v>
       </c>
       <c r="S8">
-        <v>0.01757379171132518</v>
+        <v>0.01357079737132632</v>
       </c>
       <c r="T8">
-        <v>0.01757379171132518</v>
+        <v>0.01357079737132632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H9">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.937095</v>
       </c>
       <c r="O9">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P9">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q9">
-        <v>0.3111690585366667</v>
+        <v>0.20927455432</v>
       </c>
       <c r="R9">
-        <v>2.80052152683</v>
+        <v>1.88347098888</v>
       </c>
       <c r="S9">
-        <v>0.0004952117064685658</v>
+        <v>0.0005464413073504384</v>
       </c>
       <c r="T9">
-        <v>0.0004952117064685657</v>
+        <v>0.0005464413073504386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H10">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N10">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O10">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P10">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q10">
-        <v>14.57299309179022</v>
+        <v>7.455587251909334</v>
       </c>
       <c r="R10">
-        <v>131.156937826112</v>
+        <v>67.10028526718401</v>
       </c>
       <c r="S10">
-        <v>0.02319226985895731</v>
+        <v>0.01946744485126948</v>
       </c>
       <c r="T10">
-        <v>0.02319226985895731</v>
+        <v>0.01946744485126949</v>
       </c>
     </row>
   </sheetData>
